--- a/Assets/StreamingAssets/2_Canteen_Training_Garden.xlsx
+++ b/Assets/StreamingAssets/2_Canteen_Training_Garden.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/renqi/TextAdvancedGame/Assets/StreamingAssets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BDA34E0-A213-E042-BC53-59B0F6A039EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AE12322-DABF-9845-B520-F3F9EA265548}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="500" windowWidth="27960" windowHeight="15880" xr2:uid="{68C9ECD6-F2C7-A34A-8665-FFA8663C762C}"/>
   </bookViews>
@@ -364,10 +364,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>I am Fu—just a humble scholar, invited here by the young master to exchange poems and ideas.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I’ve been waiting for you, Fu. There are some essays I wanted to discuss.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -418,6 +414,9 @@
   <si>
     <t xml:space="preserve"> &lt;color=#00CC00&gt;(Just then, we heard a clear, low voice reciting poetry.)&lt;/color&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am Fu—just a humble scholar, invited here by the young Lord to exchange poems and ideas.</t>
   </si>
 </sst>
 </file>
@@ -964,7 +963,7 @@
     </row>
     <row r="7" spans="1:16" ht="34">
       <c r="B7" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D7" t="s">
         <v>18</v>
@@ -1145,7 +1144,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C16" t="s">
         <v>41</v>
@@ -1191,7 +1190,7 @@
         <v>72</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
         <v>44</v>
@@ -1275,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" t="s">
         <v>15</v>
@@ -1315,7 +1314,7 @@
         <v>1</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C24" t="s">
         <v>15</v>
@@ -1335,7 +1334,7 @@
         <v>46</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C25" t="s">
         <v>39</v>
@@ -1381,7 +1380,7 @@
         <v>46</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" t="s">
         <v>44</v>
@@ -1443,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
         <v>54</v>
@@ -1498,7 +1497,7 @@
         <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" t="s">
         <v>40</v>
@@ -1582,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C36" t="s">
         <v>55</v>
@@ -1744,7 +1743,7 @@
         <v>68</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>82</v>
+        <v>95</v>
       </c>
       <c r="C44" t="s">
         <v>69</v>
@@ -1764,7 +1763,7 @@
         <v>1</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C45" t="s">
         <v>15</v>
@@ -1784,7 +1783,7 @@
         <v>46</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" t="s">
         <v>43</v>
@@ -1817,7 +1816,7 @@
         <v>2</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C48" t="s">
         <v>73</v>
